--- a/Document/Reports/DropIt_TasksheetFinal.xlsx
+++ b/Document/Reports/DropIt_TasksheetFinal.xlsx
@@ -306,12 +306,6 @@
     <t>Manage Venue</t>
   </si>
   <si>
-    <t>Mange  Category</t>
-  </si>
-  <si>
-    <t>Mange  Settings</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
@@ -667,6 +661,12 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>Manage  Category</t>
+  </si>
+  <si>
+    <t>Manage  Settings</t>
   </si>
 </sst>
 </file>
@@ -884,22 +884,22 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B157" workbookViewId="0">
-      <selection activeCell="J172" sqref="J172"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1256,10 +1256,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="23">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1276,8 +1276,8 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1292,8 +1292,8 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="15.6">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1308,8 +1308,8 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1324,8 +1324,8 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="15.6">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1340,10 +1340,10 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="24">
+      <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1360,8 +1360,8 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1376,8 +1376,8 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1392,8 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1408,10 +1408,10 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="24">
+      <c r="A11" s="25">
         <v>3</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1428,8 +1428,8 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1442,8 +1442,8 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15.6">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1458,8 +1458,8 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15.6">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
         <v>16</v>
       </c>
@@ -1472,8 +1472,8 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="19" t="s">
         <v>53</v>
       </c>
@@ -1486,8 +1486,8 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="15.6">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
         <v>54</v>
       </c>
@@ -1502,8 +1502,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="20" t="s">
         <v>55</v>
       </c>
@@ -1518,8 +1518,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="15.6">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
@@ -1534,8 +1534,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="20" t="s">
         <v>57</v>
       </c>
@@ -1550,8 +1550,8 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="15.6">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="20" t="s">
         <v>58</v>
       </c>
@@ -1566,8 +1566,8 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" ht="15.6">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="20" t="s">
         <v>59</v>
       </c>
@@ -1582,10 +1582,10 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" ht="15.6">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="20" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1598,10 +1598,10 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="15.6">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="20" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1614,10 +1614,10 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="15.6">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1630,10 +1630,10 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="15.6">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1644,10 +1644,10 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="15.6">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1660,10 +1660,10 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="15.6">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1676,10 +1676,10 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -1692,10 +1692,10 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="15.6">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
@@ -1708,10 +1708,10 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="15.6">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
@@ -1724,10 +1724,10 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="15.6">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1740,10 +1740,10 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1756,10 +1756,10 @@
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>8</v>
@@ -1772,10 +1772,10 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>8</v>
@@ -1788,8 +1788,8 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="20" t="s">
         <v>52</v>
       </c>
@@ -1804,10 +1804,10 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" ht="15.6">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1820,10 +1820,10 @@
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" ht="15.6">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1836,10 +1836,10 @@
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" ht="15.6">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>8</v>
@@ -1852,8 +1852,8 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="15.6">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="20" t="s">
         <v>58</v>
       </c>
@@ -1868,10 +1868,10 @@
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" ht="15.6">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1884,8 +1884,8 @@
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="19" t="s">
         <v>17</v>
       </c>
@@ -1898,8 +1898,8 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="20" t="s">
         <v>18</v>
       </c>
@@ -1914,8 +1914,8 @@
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="20" t="s">
         <v>19</v>
       </c>
@@ -1930,10 +1930,10 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1946,10 +1946,10 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1962,8 +1962,8 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" ht="15.6">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="3" t="s">
         <v>20</v>
       </c>
@@ -1978,10 +1978,10 @@
       <c r="J46" s="9"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
-      <c r="A47" s="27">
+      <c r="A47" s="26">
         <v>4</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -1998,8 +1998,8 @@
       <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="3" t="s">
         <v>32</v>
       </c>
@@ -2014,8 +2014,8 @@
       <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:10" ht="15.6">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="5" t="s">
         <v>33</v>
       </c>
@@ -2028,10 +2028,10 @@
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2044,10 +2044,10 @@
       <c r="J50" s="9"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2058,10 +2058,10 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>8</v>
@@ -2074,10 +2074,10 @@
       <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10" ht="15.6">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2090,10 +2090,10 @@
       <c r="J53" s="9"/>
     </row>
     <row r="54" spans="1:10" ht="15.6">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2106,10 +2106,10 @@
       <c r="J54" s="9"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2122,10 +2122,10 @@
       <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
@@ -2138,10 +2138,10 @@
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" ht="15.6">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2154,10 +2154,10 @@
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" ht="15.6">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
@@ -2170,10 +2170,10 @@
       <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10" ht="15.6">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2186,10 +2186,10 @@
       <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10" ht="15.6">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2202,10 +2202,10 @@
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10" ht="15.6">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2216,10 +2216,10 @@
       <c r="J61" s="9"/>
     </row>
     <row r="62" spans="1:10" ht="15.6">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2230,10 +2230,10 @@
       <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" ht="15.6">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2246,10 +2246,10 @@
       <c r="J63" s="9"/>
     </row>
     <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>8</v>
@@ -2262,10 +2262,10 @@
       <c r="J64" s="9"/>
     </row>
     <row r="65" spans="1:10" ht="15.6">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>8</v>
@@ -2278,10 +2278,10 @@
       <c r="J65" s="9"/>
     </row>
     <row r="66" spans="1:10" ht="15.6">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2294,10 +2294,10 @@
       <c r="J66" s="9"/>
     </row>
     <row r="67" spans="1:10" ht="15.6">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
@@ -2310,10 +2310,10 @@
       <c r="J67" s="9"/>
     </row>
     <row r="68" spans="1:10" ht="15.6">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2326,10 +2326,10 @@
       <c r="J68" s="9"/>
     </row>
     <row r="69" spans="1:10" ht="15.6">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2342,10 +2342,10 @@
       <c r="J69" s="9"/>
     </row>
     <row r="70" spans="1:10" ht="15.6">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2358,10 +2358,10 @@
       <c r="J70" s="9"/>
     </row>
     <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2374,10 +2374,10 @@
       <c r="J71" s="9"/>
     </row>
     <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2390,10 +2390,10 @@
       <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10" ht="15.6">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2404,10 +2404,10 @@
       <c r="J73" s="9"/>
     </row>
     <row r="74" spans="1:10" ht="15.6">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2420,10 +2420,10 @@
       <c r="J74" s="9"/>
     </row>
     <row r="75" spans="1:10" ht="15.6">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
@@ -2436,10 +2436,10 @@
       <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10" ht="15.6">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>8</v>
@@ -2452,10 +2452,10 @@
       <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
@@ -2468,10 +2468,10 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
       <c r="C78" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>8</v>
@@ -2484,10 +2484,10 @@
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:10" ht="15.6">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
       <c r="C79" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2498,10 +2498,10 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
       <c r="C80" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>8</v>
@@ -2514,10 +2514,10 @@
       <c r="J80" s="9"/>
     </row>
     <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
@@ -2530,10 +2530,10 @@
       <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2546,10 +2546,10 @@
       <c r="J82" s="9"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2562,10 +2562,10 @@
       <c r="J83" s="9"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2578,10 +2578,10 @@
       <c r="J84" s="9"/>
     </row>
     <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2594,10 +2594,10 @@
       <c r="J85" s="9"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2610,8 +2610,8 @@
       <c r="J86" s="9"/>
     </row>
     <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="7" t="s">
         <v>22</v>
       </c>
@@ -2624,10 +2624,10 @@
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2640,10 +2640,10 @@
       <c r="J88" s="9"/>
     </row>
     <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
@@ -2656,10 +2656,10 @@
       <c r="J89" s="9"/>
     </row>
     <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2672,10 +2672,10 @@
       <c r="J90" s="9"/>
     </row>
     <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2688,10 +2688,10 @@
       <c r="J91" s="9"/>
     </row>
     <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>8</v>
@@ -2704,10 +2704,10 @@
       <c r="J92" s="9"/>
     </row>
     <row r="93" spans="1:10" ht="15.6">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
       <c r="C93" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2720,10 +2720,10 @@
       <c r="J93" s="9"/>
     </row>
     <row r="94" spans="1:10" ht="15.6">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2736,10 +2736,10 @@
       <c r="J94" s="9"/>
     </row>
     <row r="95" spans="1:10" ht="15.6">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2752,10 +2752,10 @@
       <c r="J95" s="9"/>
     </row>
     <row r="96" spans="1:10" ht="15.6">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -2766,10 +2766,10 @@
       <c r="J96" s="9"/>
     </row>
     <row r="97" spans="1:10" ht="15.6">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
       <c r="C97" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
@@ -2782,10 +2782,10 @@
       <c r="J97" s="9"/>
     </row>
     <row r="98" spans="1:10" ht="15.6">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
       <c r="C98" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>8</v>
@@ -2798,10 +2798,10 @@
       <c r="J98" s="9"/>
     </row>
     <row r="99" spans="1:10" ht="15.6">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -2812,10 +2812,10 @@
       <c r="J99" s="9"/>
     </row>
     <row r="100" spans="1:10" ht="15.6">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
       <c r="C100" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
@@ -2828,10 +2828,10 @@
       <c r="J100" s="9"/>
     </row>
     <row r="101" spans="1:10" ht="15.6">
-      <c r="A101" s="23"/>
-      <c r="B101" s="23"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -2844,10 +2844,10 @@
       <c r="J101" s="9"/>
     </row>
     <row r="102" spans="1:10" ht="15.6">
-      <c r="A102" s="25">
+      <c r="A102" s="23">
         <v>5</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -2862,10 +2862,10 @@
       <c r="J102" s="9"/>
     </row>
     <row r="103" spans="1:10" ht="15.6">
-      <c r="A103" s="26"/>
-      <c r="B103" s="24"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -2878,10 +2878,10 @@
       <c r="J103" s="9"/>
     </row>
     <row r="104" spans="1:10" ht="15.6">
-      <c r="A104" s="26"/>
-      <c r="B104" s="24"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -2892,10 +2892,10 @@
       <c r="J104" s="9"/>
     </row>
     <row r="105" spans="1:10" ht="15.6">
-      <c r="A105" s="26"/>
-      <c r="B105" s="24"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -2906,10 +2906,10 @@
       <c r="J105" s="9"/>
     </row>
     <row r="106" spans="1:10" ht="15.6">
-      <c r="A106" s="26"/>
-      <c r="B106" s="24"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -2920,10 +2920,10 @@
       <c r="J106" s="9"/>
     </row>
     <row r="107" spans="1:10" ht="15.6">
-      <c r="A107" s="26"/>
-      <c r="B107" s="24"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>8</v>
@@ -2938,10 +2938,10 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.6">
-      <c r="A108" s="26"/>
-      <c r="B108" s="24"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>8</v>
@@ -2956,10 +2956,10 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.6">
-      <c r="A109" s="26"/>
-      <c r="B109" s="24"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>8</v>
@@ -2974,10 +2974,10 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.6">
-      <c r="A110" s="26"/>
-      <c r="B110" s="24"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>8</v>
@@ -2992,10 +2992,10 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.6">
-      <c r="A111" s="26"/>
-      <c r="B111" s="24"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3006,10 +3006,10 @@
       <c r="J111" s="9"/>
     </row>
     <row r="112" spans="1:10" ht="15.6">
-      <c r="A112" s="26"/>
-      <c r="B112" s="24"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3024,10 +3024,10 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.6">
-      <c r="A113" s="26"/>
-      <c r="B113" s="24"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3042,10 +3042,10 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.6">
-      <c r="A114" s="26"/>
-      <c r="B114" s="24"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3060,10 +3060,10 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.6">
-      <c r="A115" s="26"/>
-      <c r="B115" s="24"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3074,10 +3074,10 @@
       <c r="J115" s="9"/>
     </row>
     <row r="116" spans="1:10" ht="15.6">
-      <c r="A116" s="26"/>
-      <c r="B116" s="24"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>8</v>
@@ -3092,10 +3092,10 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.6">
-      <c r="A117" s="26"/>
-      <c r="B117" s="24"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>8</v>
@@ -3110,10 +3110,10 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.6">
-      <c r="A118" s="26"/>
-      <c r="B118" s="24"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>8</v>
@@ -3128,10 +3128,10 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.6">
-      <c r="A119" s="26"/>
-      <c r="B119" s="24"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3142,10 +3142,10 @@
       <c r="J119" s="9"/>
     </row>
     <row r="120" spans="1:10" ht="15.6">
-      <c r="A120" s="26"/>
-      <c r="B120" s="24"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="25"/>
       <c r="C120" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3160,10 +3160,10 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.6">
-      <c r="A121" s="26"/>
-      <c r="B121" s="24"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="25"/>
       <c r="C121" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3178,10 +3178,10 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="15.6">
-      <c r="A122" s="26"/>
-      <c r="B122" s="24"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="25"/>
       <c r="C122" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3192,10 +3192,10 @@
       <c r="J122" s="9"/>
     </row>
     <row r="123" spans="1:10" ht="15.6">
-      <c r="A123" s="26"/>
-      <c r="B123" s="24"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="25"/>
       <c r="C123" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
@@ -3210,10 +3210,10 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.6">
-      <c r="A124" s="26"/>
-      <c r="B124" s="24"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
@@ -3228,10 +3228,10 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="15.6">
-      <c r="A125" s="26"/>
-      <c r="B125" s="24"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3242,10 +3242,10 @@
       <c r="J125" s="9"/>
     </row>
     <row r="126" spans="1:10" ht="15.6">
-      <c r="A126" s="26"/>
-      <c r="B126" s="24"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -3260,10 +3260,10 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="15.6">
-      <c r="A127" s="26"/>
-      <c r="B127" s="24"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -3278,10 +3278,10 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="15.6">
-      <c r="A128" s="26"/>
-      <c r="B128" s="24"/>
+      <c r="A128" s="24"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3292,10 +3292,10 @@
       <c r="J128" s="9"/>
     </row>
     <row r="129" spans="1:10" ht="15.6">
-      <c r="A129" s="26"/>
-      <c r="B129" s="24"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3310,10 +3310,10 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.6">
-      <c r="A130" s="26"/>
-      <c r="B130" s="24"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3328,10 +3328,10 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="15.6">
-      <c r="A131" s="26"/>
-      <c r="B131" s="24"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3346,10 +3346,10 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="15.6">
-      <c r="A132" s="26"/>
-      <c r="B132" s="24"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3360,10 +3360,10 @@
       <c r="J132" s="9"/>
     </row>
     <row r="133" spans="1:10" ht="15.6">
-      <c r="A133" s="26"/>
-      <c r="B133" s="24"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="25"/>
       <c r="C133" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3378,10 +3378,10 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="15.6">
-      <c r="A134" s="26"/>
-      <c r="B134" s="24"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="25"/>
       <c r="C134" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3392,10 +3392,10 @@
       <c r="J134" s="9"/>
     </row>
     <row r="135" spans="1:10" ht="15.6">
-      <c r="A135" s="26"/>
-      <c r="B135" s="24"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3410,10 +3410,10 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="15.6">
-      <c r="A136" s="26"/>
-      <c r="B136" s="24"/>
+      <c r="A136" s="24"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3428,10 +3428,10 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.6">
-      <c r="A137" s="26"/>
-      <c r="B137" s="24"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="25"/>
       <c r="C137" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3446,10 +3446,10 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.6">
-      <c r="A138" s="26"/>
-      <c r="B138" s="24"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -3464,10 +3464,10 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.6">
-      <c r="A139" s="26"/>
-      <c r="B139" s="24"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
@@ -3482,10 +3482,10 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="16.95" customHeight="1">
-      <c r="A140" s="26"/>
-      <c r="B140" s="24"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
@@ -3500,10 +3500,10 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="16.95" customHeight="1">
-      <c r="A141" s="26"/>
-      <c r="B141" s="24"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>8</v>
@@ -3518,10 +3518,10 @@
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.6">
-      <c r="A142" s="26"/>
-      <c r="B142" s="24"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="25"/>
       <c r="C142" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
@@ -3536,10 +3536,10 @@
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.6">
-      <c r="A143" s="26"/>
-      <c r="B143" s="24"/>
+      <c r="A143" s="24"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
@@ -3554,10 +3554,10 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="15.6">
-      <c r="A144" s="26"/>
-      <c r="B144" s="24"/>
+      <c r="A144" s="24"/>
+      <c r="B144" s="25"/>
       <c r="C144" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
@@ -3572,10 +3572,10 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="15.6">
-      <c r="A145" s="26"/>
-      <c r="B145" s="24"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="25"/>
       <c r="C145" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -3590,10 +3590,10 @@
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.6">
-      <c r="A146" s="26"/>
-      <c r="B146" s="24"/>
+      <c r="A146" s="24"/>
+      <c r="B146" s="25"/>
       <c r="C146" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -3608,10 +3608,10 @@
       </c>
     </row>
     <row r="147" spans="1:10" ht="15.6">
-      <c r="A147" s="26"/>
-      <c r="B147" s="24"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="25"/>
       <c r="C147" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -3626,10 +3626,10 @@
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.6">
-      <c r="A148" s="26"/>
-      <c r="B148" s="24"/>
+      <c r="A148" s="24"/>
+      <c r="B148" s="25"/>
       <c r="C148" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -3644,10 +3644,10 @@
       </c>
     </row>
     <row r="149" spans="1:10" ht="15.6">
-      <c r="A149" s="26"/>
-      <c r="B149" s="24"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="25"/>
       <c r="C149" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -3662,10 +3662,10 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="15.6">
-      <c r="A150" s="26"/>
-      <c r="B150" s="24"/>
+      <c r="A150" s="24"/>
+      <c r="B150" s="25"/>
       <c r="C150" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
@@ -3680,10 +3680,10 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="15.6">
-      <c r="A151" s="26"/>
-      <c r="B151" s="24"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="25"/>
       <c r="C151" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
@@ -3698,10 +3698,10 @@
       </c>
     </row>
     <row r="152" spans="1:10" ht="15.6">
-      <c r="A152" s="26"/>
-      <c r="B152" s="24"/>
+      <c r="A152" s="24"/>
+      <c r="B152" s="25"/>
       <c r="C152" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>8</v>
@@ -3716,10 +3716,10 @@
       </c>
     </row>
     <row r="153" spans="1:10" ht="15.6">
-      <c r="A153" s="26"/>
-      <c r="B153" s="24"/>
+      <c r="A153" s="24"/>
+      <c r="B153" s="25"/>
       <c r="C153" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>8</v>
@@ -3734,10 +3734,10 @@
       </c>
     </row>
     <row r="154" spans="1:10" ht="15.6">
-      <c r="A154" s="26"/>
-      <c r="B154" s="24"/>
+      <c r="A154" s="24"/>
+      <c r="B154" s="25"/>
       <c r="C154" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>8</v>
@@ -3752,10 +3752,10 @@
       </c>
     </row>
     <row r="155" spans="1:10" ht="15.6">
-      <c r="A155" s="26"/>
-      <c r="B155" s="24"/>
+      <c r="A155" s="24"/>
+      <c r="B155" s="25"/>
       <c r="C155" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>8</v>
@@ -3770,10 +3770,10 @@
       </c>
     </row>
     <row r="156" spans="1:10" ht="15.6">
-      <c r="A156" s="26"/>
-      <c r="B156" s="24"/>
+      <c r="A156" s="24"/>
+      <c r="B156" s="25"/>
       <c r="C156" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -3788,10 +3788,10 @@
       </c>
     </row>
     <row r="157" spans="1:10" ht="15.6">
-      <c r="A157" s="26"/>
-      <c r="B157" s="24"/>
+      <c r="A157" s="24"/>
+      <c r="B157" s="25"/>
       <c r="C157" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -3806,10 +3806,10 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="15.6">
-      <c r="A158" s="26"/>
-      <c r="B158" s="24"/>
+      <c r="A158" s="24"/>
+      <c r="B158" s="25"/>
       <c r="C158" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -3824,8 +3824,8 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="15.6">
-      <c r="A159" s="26"/>
-      <c r="B159" s="24"/>
+      <c r="A159" s="24"/>
+      <c r="B159" s="25"/>
       <c r="C159" s="3" t="s">
         <v>35</v>
       </c>
@@ -3840,8 +3840,8 @@
       <c r="J159" s="9"/>
     </row>
     <row r="160" spans="1:10" ht="15.6">
-      <c r="A160" s="26"/>
-      <c r="B160" s="24"/>
+      <c r="A160" s="24"/>
+      <c r="B160" s="25"/>
       <c r="C160" s="7" t="s">
         <v>23</v>
       </c>
@@ -3854,10 +3854,10 @@
       <c r="J160" s="9"/>
     </row>
     <row r="161" spans="1:10" ht="15.6">
-      <c r="A161" s="26"/>
-      <c r="B161" s="24"/>
+      <c r="A161" s="24"/>
+      <c r="B161" s="25"/>
       <c r="C161" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -3870,10 +3870,10 @@
       <c r="J161" s="9"/>
     </row>
     <row r="162" spans="1:10" ht="15.6">
-      <c r="A162" s="26"/>
-      <c r="B162" s="24"/>
+      <c r="A162" s="24"/>
+      <c r="B162" s="25"/>
       <c r="C162" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -3886,8 +3886,8 @@
       <c r="J162" s="9"/>
     </row>
     <row r="163" spans="1:10" ht="15.6">
-      <c r="A163" s="26"/>
-      <c r="B163" s="24"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="25"/>
       <c r="C163" s="7" t="s">
         <v>24</v>
       </c>
@@ -3900,10 +3900,10 @@
       <c r="J163" s="9"/>
     </row>
     <row r="164" spans="1:10" ht="15.6">
-      <c r="A164" s="26"/>
-      <c r="B164" s="24"/>
+      <c r="A164" s="24"/>
+      <c r="B164" s="25"/>
       <c r="C164" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -3916,10 +3916,10 @@
       <c r="J164" s="9"/>
     </row>
     <row r="165" spans="1:10" ht="15.6">
-      <c r="A165" s="26"/>
-      <c r="B165" s="24"/>
+      <c r="A165" s="24"/>
+      <c r="B165" s="25"/>
       <c r="C165" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -3932,10 +3932,10 @@
       <c r="J165" s="9"/>
     </row>
     <row r="166" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A166" s="25">
+      <c r="A166" s="23">
         <v>6</v>
       </c>
-      <c r="B166" s="24" t="s">
+      <c r="B166" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C166" s="7" t="s">
@@ -3952,10 +3952,10 @@
       <c r="J166" s="9"/>
     </row>
     <row r="167" spans="1:10" ht="15.6">
-      <c r="A167" s="26"/>
-      <c r="B167" s="24"/>
+      <c r="A167" s="24"/>
+      <c r="B167" s="25"/>
       <c r="C167" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -3968,8 +3968,8 @@
       <c r="J167" s="9"/>
     </row>
     <row r="168" spans="1:10" ht="15.6">
-      <c r="A168" s="26"/>
-      <c r="B168" s="24"/>
+      <c r="A168" s="24"/>
+      <c r="B168" s="25"/>
       <c r="C168" s="7" t="s">
         <v>27</v>
       </c>
@@ -4232,18 +4232,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B46"/>
+    <mergeCell ref="A11:A46"/>
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="A166:A168"/>
     <mergeCell ref="B166:B168"/>
     <mergeCell ref="B102:B165"/>
     <mergeCell ref="A102:A165"/>
     <mergeCell ref="B47:B101"/>
     <mergeCell ref="A47:A101"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B46"/>
-    <mergeCell ref="A11:A46"/>
-    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D171:H189 D2:H168">

--- a/Document/Reports/DropIt_TasksheetFinal.xlsx
+++ b/Document/Reports/DropIt_TasksheetFinal.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="36" windowWidth="20112" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="194">
   <si>
     <t>No.</t>
   </si>
@@ -667,6 +667,45 @@
   </si>
   <si>
     <t>Manage  Settings</t>
+  </si>
+  <si>
+    <t>Guest User</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Login/Register</t>
+  </si>
+  <si>
+    <t>Reponse Ticket</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>View Event</t>
+  </si>
+  <si>
+    <t>Ticket Detail</t>
   </si>
 </sst>
 </file>
@@ -884,22 +923,22 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -909,6 +948,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -925,7 +1032,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="464646"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1207,23 +1314,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J191"/>
+  <dimension ref="A1:J212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51.6">
+    <row r="1" spans="1:10" ht="52.5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1255,11 +1360,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="28">
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1275,9 +1380,9 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1291,9 +1396,9 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1307,9 +1412,9 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1323,9 +1428,9 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+    <row r="6" spans="1:10" ht="15.75">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1339,11 +1444,11 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="25">
+    <row r="7" spans="1:10" ht="15.75">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1359,9 +1464,9 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1375,9 +1480,9 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+    <row r="9" spans="1:10" ht="15.75">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1391,9 +1496,9 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+    <row r="10" spans="1:10" ht="15.75">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1407,11 +1512,11 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="25">
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1427,9 +1532,9 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+    <row r="12" spans="1:10" ht="15.75">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1441,9 +1546,9 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1457,9 +1562,9 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="19" t="s">
         <v>16</v>
       </c>
@@ -1471,9 +1576,9 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="19" t="s">
         <v>53</v>
       </c>
@@ -1485,9 +1590,9 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="20" t="s">
         <v>54</v>
       </c>
@@ -1501,9 +1606,9 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+    <row r="17" spans="1:10" ht="15.75">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="20" t="s">
         <v>55</v>
       </c>
@@ -1517,9 +1622,9 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" ht="15.6">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+    <row r="18" spans="1:10" ht="15.75">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
@@ -1533,9 +1638,9 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+    <row r="19" spans="1:10" ht="15.75">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="20" t="s">
         <v>57</v>
       </c>
@@ -1549,9 +1654,9 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+    <row r="20" spans="1:10" ht="15.75">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="20" t="s">
         <v>58</v>
       </c>
@@ -1565,9 +1670,9 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+    <row r="21" spans="1:10" ht="15.75">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="20" t="s">
         <v>59</v>
       </c>
@@ -1581,9 +1686,9 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
+    <row r="22" spans="1:10" ht="15.75">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="20" t="s">
         <v>179</v>
       </c>
@@ -1597,9 +1702,9 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+    <row r="23" spans="1:10" ht="15.75">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="20" t="s">
         <v>180</v>
       </c>
@@ -1613,9 +1718,9 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" ht="15.6">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+    <row r="24" spans="1:10" ht="15.75">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="20" t="s">
         <v>178</v>
       </c>
@@ -1629,9 +1734,9 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+    <row r="25" spans="1:10" ht="15.75">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="19" t="s">
         <v>60</v>
       </c>
@@ -1643,9 +1748,9 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" ht="15.6">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+    <row r="26" spans="1:10" ht="15.75">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="20" t="s">
         <v>61</v>
       </c>
@@ -1659,9 +1764,9 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+    <row r="27" spans="1:10" ht="15.75">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="20" t="s">
         <v>62</v>
       </c>
@@ -1675,9 +1780,9 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+    <row r="28" spans="1:10" ht="15.75">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="20" t="s">
         <v>63</v>
       </c>
@@ -1691,9 +1796,9 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" ht="15.6">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+    <row r="29" spans="1:10" ht="15.75">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="20" t="s">
         <v>64</v>
       </c>
@@ -1707,9 +1812,9 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" ht="15.6">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+    <row r="30" spans="1:10" ht="15.75">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="20" t="s">
         <v>65</v>
       </c>
@@ -1723,9 +1828,9 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" ht="15.6">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+    <row r="31" spans="1:10" ht="15.75">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="20" t="s">
         <v>66</v>
       </c>
@@ -1739,9 +1844,9 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+    <row r="32" spans="1:10" ht="15.75">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="20" t="s">
         <v>67</v>
       </c>
@@ -1755,9 +1860,9 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+    <row r="33" spans="1:10" ht="15.75">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="20" t="s">
         <v>68</v>
       </c>
@@ -1771,9 +1876,9 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+    <row r="34" spans="1:10" ht="15.75">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="20" t="s">
         <v>69</v>
       </c>
@@ -1787,9 +1892,9 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+    <row r="35" spans="1:10" ht="15.75">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="20" t="s">
         <v>52</v>
       </c>
@@ -1803,11 +1908,11 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" ht="15.6">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+    <row r="36" spans="1:10" ht="15.75">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="20" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1819,105 +1924,105 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" ht="15.6">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+    <row r="37" spans="1:10" ht="15.75">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" ht="15.6">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
+    <row r="38" spans="1:10" ht="15.75">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" ht="15.6">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+    <row r="39" spans="1:10" ht="15.75">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H39" s="1"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" ht="15.6">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
+    <row r="40" spans="1:10" ht="15.75">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="20" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="19" t="s">
-        <v>17</v>
+    <row r="41" spans="1:10" ht="15.75">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="20" t="s">
-        <v>18</v>
+    <row r="42" spans="1:10" ht="15.75">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H42" s="1"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
+    <row r="43" spans="1:10" ht="15.75">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1929,11 +2034,11 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+    <row r="44" spans="1:10" ht="15.75">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="20" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1945,11 +2050,11 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
+    <row r="45" spans="1:10" ht="15.75">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1961,47 +2066,47 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" ht="15.6">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="3" t="s">
-        <v>20</v>
+    <row r="46" spans="1:10" ht="15.75">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10" ht="15.6">
-      <c r="A47" s="26">
-        <v>4</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>6</v>
-      </c>
+    <row r="47" spans="1:10" ht="15.75">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:10" ht="15.6">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+    <row r="48" spans="1:10" ht="15.75">
+      <c r="A48" s="27">
+        <v>4</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="C48" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>8</v>
@@ -2013,13 +2118,15 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="1"/>
+    <row r="49" spans="1:10" ht="15.75">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2027,45 +2134,43 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="6" t="s">
-        <v>75</v>
+    <row r="50" spans="1:10" ht="15.75">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H50" s="1"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+    <row r="51" spans="1:10" ht="15.75">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+    <row r="52" spans="1:10" ht="15.75">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2073,27 +2178,27 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
+    <row r="53" spans="1:10" ht="15.75">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H53" s="1"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
+    <row r="54" spans="1:10" ht="15.75">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2105,121 +2210,123 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+    <row r="55" spans="1:10" ht="15.75">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10" ht="15.6">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+    <row r="56" spans="1:10" ht="15.75">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:10" ht="15.6">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
+    <row r="57" spans="1:10" ht="15.75">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="6" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:10" ht="15.6">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+    <row r="58" spans="1:10" ht="15.75">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="6" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" ht="15.6">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+    <row r="59" spans="1:10" ht="15.75">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" ht="15.6">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
+    <row r="60" spans="1:10" ht="15.75">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="1:10" ht="15.6">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="4" t="s">
-        <v>85</v>
+    <row r="61" spans="1:10" ht="15.75">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="1:10" ht="15.6">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="21" t="s">
-        <v>99</v>
+    <row r="62" spans="1:10" ht="15.75">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2229,43 +2336,41 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:10" ht="15.6">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="6" t="s">
-        <v>91</v>
+    <row r="63" spans="1:10" ht="15.75">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
+    <row r="64" spans="1:10" ht="15.75">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:10" ht="15.6">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
+    <row r="65" spans="1:10" ht="15.75">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>8</v>
@@ -2277,59 +2382,59 @@
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" ht="15.6">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
+    <row r="66" spans="1:10" ht="15.75">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" ht="15.6">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+    <row r="67" spans="1:10" ht="15.75">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D67" s="1"/>
-      <c r="E67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="1:10" ht="15.6">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+    <row r="68" spans="1:10" ht="15.75">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="1:10" ht="15.6">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
+    <row r="69" spans="1:10" ht="15.75">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2341,43 +2446,43 @@
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="1:10" ht="15.6">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
+    <row r="70" spans="1:10" ht="15.75">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
+    <row r="71" spans="1:10" ht="15.75">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
+    <row r="72" spans="1:10" ht="15.75">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2389,107 +2494,109 @@
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="1:10" ht="15.6">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="5" t="s">
-        <v>60</v>
+    <row r="73" spans="1:10" ht="15.75">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H73" s="1"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="1:10" ht="15.6">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="6" t="s">
-        <v>86</v>
+    <row r="74" spans="1:10" ht="15.75">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" spans="1:10" ht="15.6">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
+    <row r="75" spans="1:10" ht="15.75">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="1:10" ht="15.6">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+    <row r="76" spans="1:10" ht="15.75">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
+    <row r="77" spans="1:10" ht="15.75">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
+    <row r="78" spans="1:10" ht="15.75">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="1:10" ht="15.6">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
+    <row r="79" spans="1:10" ht="15.75">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -2497,15 +2604,13 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+    <row r="80" spans="1:10" ht="15.75">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -2513,43 +2618,43 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
+    <row r="81" spans="1:10" ht="15.75">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
+    <row r="82" spans="1:10" ht="15.75">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
+    <row r="83" spans="1:10" ht="15.75">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2561,11 +2666,11 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
+    <row r="84" spans="1:10" ht="15.75">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2577,27 +2682,27 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
+    <row r="85" spans="1:10" ht="15.75">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H85" s="1"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
+    <row r="86" spans="1:10" ht="15.75">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2609,201 +2714,203 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="7" t="s">
-        <v>22</v>
+    <row r="87" spans="1:10" ht="15.75">
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="6" t="s">
-        <v>103</v>
+    <row r="88" spans="1:10" ht="15.75">
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
+    <row r="89" spans="1:10" ht="15.75">
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="6" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="D89" s="1"/>
-      <c r="E89" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H89" s="1"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
+    <row r="90" spans="1:10" ht="15.75">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
+    <row r="91" spans="1:10" ht="15.75">
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
+    <row r="92" spans="1:10" ht="15.75">
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H92" s="1"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:10" ht="15.6">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
+    <row r="93" spans="1:10" ht="15.75">
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D93" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H93" s="1"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:10" ht="15.6">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
+    <row r="94" spans="1:10" ht="15.75">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:10" ht="15.6">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
+    <row r="95" spans="1:10" ht="15.75">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="1"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:10" ht="15.6">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="7" t="s">
-        <v>105</v>
+    <row r="96" spans="1:10" ht="15.75">
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="H96" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="1:10" ht="15.6">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="6" t="s">
-        <v>106</v>
+    <row r="97" spans="1:10" ht="15.75">
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D97" s="1"/>
-      <c r="E97" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
     </row>
-    <row r="98" spans="1:10" ht="15.6">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
+    <row r="98" spans="1:10" ht="15.75">
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
     </row>
-    <row r="99" spans="1:10" ht="15.6">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D99" s="1"/>
+    <row r="99" spans="1:10" ht="15.75">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -2811,91 +2918,91 @@
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
     </row>
-    <row r="100" spans="1:10" ht="15.6">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="6" t="s">
-        <v>108</v>
+    <row r="100" spans="1:10" ht="15.75">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="D100" s="1"/>
-      <c r="E100" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
     </row>
-    <row r="101" spans="1:10" ht="15.6">
+    <row r="101" spans="1:10" ht="15.75">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
       <c r="C101" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
     </row>
-    <row r="102" spans="1:10" ht="15.6">
-      <c r="A102" s="23">
-        <v>5</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>25</v>
+    <row r="102" spans="1:10" ht="15.75">
+      <c r="A102" s="23"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H102" s="1"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" spans="1:10" ht="15.6">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="3" t="s">
-        <v>112</v>
+    <row r="103" spans="1:10" ht="15.75">
+      <c r="A103" s="25">
+        <v>5</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
     </row>
-    <row r="104" spans="1:10" ht="15.6">
-      <c r="A104" s="24"/>
-      <c r="B104" s="25"/>
+    <row r="104" spans="1:10" ht="15.75">
+      <c r="A104" s="26"/>
+      <c r="B104" s="24"/>
       <c r="C104" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H104" s="1"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
     </row>
-    <row r="105" spans="1:10" ht="15.6">
-      <c r="A105" s="24"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="21" t="s">
-        <v>139</v>
+    <row r="105" spans="1:10" ht="15.75">
+      <c r="A105" s="26"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -2905,11 +3012,11 @@
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
     </row>
-    <row r="106" spans="1:10" ht="15.6">
-      <c r="A106" s="24"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="19" t="s">
-        <v>119</v>
+    <row r="106" spans="1:10" ht="15.75">
+      <c r="A106" s="26"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -2919,29 +3026,25 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10" ht="15.6">
-      <c r="A107" s="24"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="107" spans="1:10" ht="15.75">
+      <c r="A107" s="26"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.6">
-      <c r="A108" s="24"/>
-      <c r="B108" s="25"/>
+      <c r="J107" s="9"/>
+    </row>
+    <row r="108" spans="1:10" ht="15.75">
+      <c r="A108" s="26"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>8</v>
@@ -2952,14 +3055,14 @@
       <c r="H108" s="1"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.6">
-      <c r="A109" s="24"/>
-      <c r="B109" s="25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75">
+      <c r="A109" s="26"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>8</v>
@@ -2973,11 +3076,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.6">
-      <c r="A110" s="24"/>
-      <c r="B110" s="25"/>
+    <row r="110" spans="1:10" ht="15.75">
+      <c r="A110" s="26"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>8</v>
@@ -2988,46 +3091,46 @@
       <c r="H110" s="1"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.6">
-      <c r="A111" s="24"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D111" s="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75">
+      <c r="A111" s="26"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-    </row>
-    <row r="112" spans="1:10" ht="15.6">
-      <c r="A112" s="24"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="20" t="s">
-        <v>163</v>
+      <c r="J111" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75">
+      <c r="A112" s="26"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="9"/>
-      <c r="J112" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="15.6">
-      <c r="A113" s="24"/>
-      <c r="B113" s="25"/>
+      <c r="J112" s="9"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.75">
+      <c r="A113" s="26"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3038,14 +3141,14 @@
       <c r="H113" s="1"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="15.6">
-      <c r="A114" s="24"/>
-      <c r="B114" s="25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75">
+      <c r="A114" s="26"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="20" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3056,46 +3159,46 @@
       <c r="H114" s="1"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="15.6">
-      <c r="A115" s="24"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="19" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75">
+      <c r="A115" s="26"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-    </row>
-    <row r="116" spans="1:10" ht="15.6">
-      <c r="A116" s="24"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J115" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75">
+      <c r="A116" s="26"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="15.6">
-      <c r="A117" s="24"/>
-      <c r="B117" s="25"/>
+      <c r="J116" s="9"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.75">
+      <c r="A117" s="26"/>
+      <c r="B117" s="24"/>
       <c r="C117" s="20" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>8</v>
@@ -3106,14 +3209,14 @@
       <c r="H117" s="1"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="15.6">
-      <c r="A118" s="24"/>
-      <c r="B118" s="25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75">
+      <c r="A118" s="26"/>
+      <c r="B118" s="24"/>
       <c r="C118" s="20" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>8</v>
@@ -3124,46 +3227,46 @@
       <c r="H118" s="1"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="15.6">
-      <c r="A119" s="24"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D119" s="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75">
+      <c r="A119" s="26"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-    </row>
-    <row r="120" spans="1:10" ht="15.6">
-      <c r="A120" s="24"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="20" t="s">
-        <v>128</v>
+      <c r="J119" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75">
+      <c r="A120" s="26"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="15.6">
-      <c r="A121" s="24"/>
-      <c r="B121" s="25"/>
+      <c r="J120" s="9"/>
+    </row>
+    <row r="121" spans="1:10" ht="15.75">
+      <c r="A121" s="26"/>
+      <c r="B121" s="24"/>
       <c r="C121" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3174,46 +3277,46 @@
       <c r="H121" s="1"/>
       <c r="I121" s="9"/>
       <c r="J121" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="15.6">
-      <c r="A122" s="24"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="19" t="s">
-        <v>130</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75">
+      <c r="A122" s="26"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
+      <c r="G122" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H122" s="1"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-    </row>
-    <row r="123" spans="1:10" ht="15.6">
-      <c r="A123" s="24"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="20" t="s">
-        <v>131</v>
+      <c r="J122" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75">
+      <c r="A123" s="26"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="D123" s="1"/>
-      <c r="E123" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="15.6">
-      <c r="A124" s="24"/>
-      <c r="B124" s="25"/>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="1:10" ht="15.75">
+      <c r="A124" s="26"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
@@ -3224,46 +3327,46 @@
       <c r="H124" s="1"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="15.6">
-      <c r="A125" s="24"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="19" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.75">
+      <c r="A125" s="26"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="E125" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-    </row>
-    <row r="126" spans="1:10" ht="15.6">
-      <c r="A126" s="24"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="20" t="s">
-        <v>169</v>
+      <c r="J125" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15.75">
+      <c r="A126" s="26"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="9"/>
-      <c r="J126" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="15.6">
-      <c r="A127" s="24"/>
-      <c r="B127" s="25"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.75">
+      <c r="A127" s="26"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="20" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -3277,43 +3380,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.6">
-      <c r="A128" s="24"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="19" t="s">
-        <v>135</v>
+    <row r="128" spans="1:10" ht="15.75">
+      <c r="A128" s="26"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H128" s="1"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-    </row>
-    <row r="129" spans="1:10" ht="15.6">
-      <c r="A129" s="24"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="20" t="s">
-        <v>170</v>
+      <c r="J128" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75">
+      <c r="A129" s="26"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="15.6">
-      <c r="A130" s="24"/>
-      <c r="B130" s="25"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:10" ht="15.75">
+      <c r="A130" s="26"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="20" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3324,14 +3427,14 @@
       <c r="H130" s="1"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="15.6">
-      <c r="A131" s="24"/>
-      <c r="B131" s="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75">
+      <c r="A131" s="26"/>
+      <c r="B131" s="24"/>
       <c r="C131" s="20" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3342,78 +3445,78 @@
       <c r="H131" s="1"/>
       <c r="I131" s="9"/>
       <c r="J131" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="15.6">
-      <c r="A132" s="24"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="19" t="s">
-        <v>137</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75">
+      <c r="A132" s="26"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-    </row>
-    <row r="133" spans="1:10" ht="15.6">
-      <c r="A133" s="24"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="20" t="s">
-        <v>138</v>
+      <c r="J132" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75">
+      <c r="A133" s="26"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="15.6">
-      <c r="A134" s="24"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="21" t="s">
-        <v>140</v>
+      <c r="J133" s="9"/>
+    </row>
+    <row r="134" spans="1:10" ht="15.75">
+      <c r="A134" s="26"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
+      <c r="G134" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H134" s="1"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
-    </row>
-    <row r="135" spans="1:10" ht="15.6">
-      <c r="A135" s="24"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="20" t="s">
-        <v>141</v>
+      <c r="J134" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75">
+      <c r="A135" s="26"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H135" s="1"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="15.6">
-      <c r="A136" s="24"/>
-      <c r="B136" s="25"/>
+      <c r="J135" s="9"/>
+    </row>
+    <row r="136" spans="1:10" ht="15.75">
+      <c r="A136" s="26"/>
+      <c r="B136" s="24"/>
       <c r="C136" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3427,29 +3530,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.6">
-      <c r="A137" s="24"/>
-      <c r="B137" s="25"/>
+    <row r="137" spans="1:10" ht="15.75">
+      <c r="A137" s="26"/>
+      <c r="B137" s="24"/>
       <c r="C137" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
+      <c r="H137" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="15.6">
-      <c r="A138" s="24"/>
-      <c r="B138" s="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75">
+      <c r="A138" s="26"/>
+      <c r="B138" s="24"/>
       <c r="C138" s="20" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -3460,32 +3563,32 @@
       <c r="H138" s="1"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="15.6">
-      <c r="A139" s="24"/>
-      <c r="B139" s="25"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15.75">
+      <c r="A139" s="26"/>
+      <c r="B139" s="24"/>
       <c r="C139" s="20" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D139" s="1"/>
-      <c r="E139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="9"/>
       <c r="J139" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="16.95" customHeight="1">
-      <c r="A140" s="24"/>
-      <c r="B140" s="25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75">
+      <c r="A140" s="26"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
@@ -3496,50 +3599,50 @@
       <c r="H140" s="1"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="16.95" customHeight="1">
-      <c r="A141" s="24"/>
-      <c r="B141" s="25"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="16.899999999999999" customHeight="1">
+      <c r="A141" s="26"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="9"/>
       <c r="J141" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="15.6">
-      <c r="A142" s="24"/>
-      <c r="B142" s="25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="16.899999999999999" customHeight="1">
+      <c r="A142" s="26"/>
+      <c r="B142" s="24"/>
       <c r="C142" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="15.6">
-      <c r="A143" s="24"/>
-      <c r="B143" s="25"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15.75">
+      <c r="A143" s="26"/>
+      <c r="B143" s="24"/>
       <c r="C143" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
@@ -3553,11 +3656,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.6">
-      <c r="A144" s="24"/>
-      <c r="B144" s="25"/>
+    <row r="144" spans="1:10" ht="15.75">
+      <c r="A144" s="26"/>
+      <c r="B144" s="24"/>
       <c r="C144" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
@@ -3568,50 +3671,50 @@
       <c r="H144" s="1"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="15.6">
-      <c r="A145" s="24"/>
-      <c r="B145" s="25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15.75">
+      <c r="A145" s="26"/>
+      <c r="B145" s="24"/>
       <c r="C145" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H145" s="1"/>
       <c r="I145" s="9"/>
       <c r="J145" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="15.6">
-      <c r="A146" s="24"/>
-      <c r="B146" s="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15.75">
+      <c r="A146" s="26"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
+      <c r="H146" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.6">
-      <c r="A147" s="24"/>
-      <c r="B147" s="25"/>
+    <row r="147" spans="1:10" ht="15.75">
+      <c r="A147" s="26"/>
+      <c r="B147" s="24"/>
       <c r="C147" s="20" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -3622,32 +3725,32 @@
       <c r="H147" s="1"/>
       <c r="I147" s="9"/>
       <c r="J147" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="15.6">
-      <c r="A148" s="24"/>
-      <c r="B148" s="25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15.75">
+      <c r="A148" s="26"/>
+      <c r="B148" s="24"/>
       <c r="C148" s="20" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G148" s="1"/>
-      <c r="H148" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H148" s="1"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="15.6">
-      <c r="A149" s="24"/>
-      <c r="B149" s="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15.75">
+      <c r="A149" s="26"/>
+      <c r="B149" s="24"/>
       <c r="C149" s="20" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -3658,32 +3761,32 @@
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="15.6">
-      <c r="A150" s="24"/>
-      <c r="B150" s="25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15.75">
+      <c r="A150" s="26"/>
+      <c r="B150" s="24"/>
       <c r="C150" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D150" s="1"/>
-      <c r="E150" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
+      <c r="H150" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="15.6">
-      <c r="A151" s="24"/>
-      <c r="B151" s="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="15.75">
+      <c r="A151" s="26"/>
+      <c r="B151" s="24"/>
       <c r="C151" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
@@ -3697,29 +3800,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15.6">
-      <c r="A152" s="24"/>
-      <c r="B152" s="25"/>
+    <row r="152" spans="1:10" ht="15.75">
+      <c r="A152" s="26"/>
+      <c r="B152" s="24"/>
       <c r="C152" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="15.6">
-      <c r="A153" s="24"/>
-      <c r="B153" s="25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15.75">
+      <c r="A153" s="26"/>
+      <c r="B153" s="24"/>
       <c r="C153" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>8</v>
@@ -3730,14 +3833,14 @@
       <c r="H153" s="1"/>
       <c r="I153" s="9"/>
       <c r="J153" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="15.6">
-      <c r="A154" s="24"/>
-      <c r="B154" s="25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15.75">
+      <c r="A154" s="26"/>
+      <c r="B154" s="24"/>
       <c r="C154" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>8</v>
@@ -3751,11 +3854,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15.6">
-      <c r="A155" s="24"/>
-      <c r="B155" s="25"/>
+    <row r="155" spans="1:10" ht="15.75">
+      <c r="A155" s="26"/>
+      <c r="B155" s="24"/>
       <c r="C155" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>8</v>
@@ -3766,32 +3869,32 @@
       <c r="H155" s="1"/>
       <c r="I155" s="9"/>
       <c r="J155" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="15.6">
-      <c r="A156" s="24"/>
-      <c r="B156" s="25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="15.75">
+      <c r="A156" s="26"/>
+      <c r="B156" s="24"/>
       <c r="C156" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D156" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H156" s="1"/>
       <c r="I156" s="9"/>
       <c r="J156" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="15.6">
-      <c r="A157" s="24"/>
-      <c r="B157" s="25"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15.75">
+      <c r="A157" s="26"/>
+      <c r="B157" s="24"/>
       <c r="C157" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -3805,11 +3908,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15.6">
-      <c r="A158" s="24"/>
-      <c r="B158" s="25"/>
+    <row r="158" spans="1:10" ht="15.75">
+      <c r="A158" s="26"/>
+      <c r="B158" s="24"/>
       <c r="C158" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -3823,406 +3926,518 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15.6">
-      <c r="A159" s="24"/>
-      <c r="B159" s="25"/>
-      <c r="C159" s="3" t="s">
-        <v>35</v>
+    <row r="159" spans="1:10" ht="15.75">
+      <c r="A159" s="26"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="D159" s="1"/>
-      <c r="E159" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
+      <c r="H159" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-    </row>
-    <row r="160" spans="1:10" ht="15.6">
-      <c r="A160" s="24"/>
-      <c r="B160" s="25"/>
-      <c r="C160" s="7" t="s">
-        <v>23</v>
+      <c r="J159" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="15.75">
+      <c r="A160" s="26"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
+      <c r="E160" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
     </row>
-    <row r="161" spans="1:10" ht="15.6">
-      <c r="A161" s="24"/>
-      <c r="B161" s="25"/>
-      <c r="C161" s="6" t="s">
-        <v>110</v>
+    <row r="161" spans="1:10" ht="15.75">
+      <c r="A161" s="26"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" ht="15.6">
-      <c r="A162" s="24"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="6" t="s">
-        <v>111</v>
+    <row r="162" spans="1:10" ht="15.75">
+      <c r="A162" s="26"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="H162" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H162" s="1"/>
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10" ht="15.6">
-      <c r="A163" s="24"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="7" t="s">
-        <v>24</v>
+    <row r="163" spans="1:10" ht="15.75">
+      <c r="A163" s="26"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
+      <c r="G163" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H163" s="1"/>
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" ht="15.6">
-      <c r="A164" s="24"/>
-      <c r="B164" s="25"/>
-      <c r="C164" s="6" t="s">
-        <v>110</v>
+    <row r="164" spans="1:10" ht="15.75">
+      <c r="A164" s="26"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
+      <c r="E164" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F164" s="1"/>
-      <c r="G164" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" ht="15.6">
-      <c r="A165" s="24"/>
-      <c r="B165" s="25"/>
-      <c r="C165" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D165" s="1"/>
+    <row r="165" spans="1:10" ht="15.75">
+      <c r="A165" s="26"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="H165" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H165" s="1"/>
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
     </row>
-    <row r="166" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A166" s="23">
-        <v>6</v>
-      </c>
-      <c r="B166" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>26</v>
+    <row r="166" spans="1:10" ht="15.75">
+      <c r="A166" s="26"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-      <c r="G166" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:10" ht="15.6">
-      <c r="A167" s="24"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="7" t="s">
-        <v>113</v>
+    <row r="167" spans="1:10" ht="15.75">
+      <c r="A167" s="26"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
+      <c r="E167" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F167" s="1"/>
-      <c r="G167" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" ht="15.6">
-      <c r="A168" s="24"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="7" t="s">
-        <v>27</v>
+    <row r="168" spans="1:10" ht="15.75">
+      <c r="A168" s="26"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
     </row>
-    <row r="169" spans="1:10">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-    </row>
-    <row r="170" spans="1:10">
-      <c r="A170" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="J170" s="2"/>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="A171" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="J171" s="2"/>
-    </row>
-    <row r="172" spans="1:10" ht="55.2">
-      <c r="A172" s="15">
-        <v>1</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="J172" s="2"/>
-    </row>
-    <row r="173" spans="1:10" ht="27.6">
-      <c r="A173" s="17">
-        <v>2</v>
-      </c>
-      <c r="B173" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C173" s="17">
-        <v>2</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="J173" s="2"/>
-    </row>
-    <row r="174" spans="1:10" ht="27.6">
-      <c r="A174" s="17">
-        <v>3</v>
-      </c>
-      <c r="B174" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C174" s="17">
-        <v>3</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="J174" s="2"/>
-    </row>
-    <row r="175" spans="1:10" ht="27.6">
-      <c r="A175" s="17">
-        <v>4</v>
-      </c>
-      <c r="B175" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C175" s="17">
-        <v>4</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="J175" s="2"/>
-    </row>
-    <row r="176" spans="1:10" ht="27.6">
-      <c r="A176" s="17">
-        <v>5</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C176" s="17">
-        <v>5</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="J176" s="2"/>
-    </row>
-    <row r="177" spans="4:10">
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="J177" s="2"/>
-    </row>
-    <row r="178" spans="4:10">
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="J178" s="2"/>
-    </row>
-    <row r="179" spans="4:10">
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="J179" s="2"/>
-    </row>
-    <row r="180" spans="4:10">
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="J180" s="2"/>
-    </row>
-    <row r="181" spans="4:10">
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="J181" s="2"/>
-    </row>
-    <row r="182" spans="4:10">
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="J182" s="2"/>
-    </row>
-    <row r="183" spans="4:10">
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="J183" s="2"/>
-    </row>
-    <row r="184" spans="4:10">
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="J184" s="2"/>
-    </row>
-    <row r="185" spans="4:10">
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="J185" s="2"/>
-    </row>
-    <row r="186" spans="4:10">
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="J186" s="2"/>
-    </row>
-    <row r="187" spans="4:10">
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="J187" s="2"/>
-    </row>
-    <row r="188" spans="4:10">
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="J188" s="2"/>
-    </row>
-    <row r="189" spans="4:10">
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="J189" s="2"/>
-    </row>
-    <row r="190" spans="4:10">
+    <row r="169" spans="1:10" ht="15.75">
+      <c r="A169" s="26"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="1"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+    </row>
+    <row r="170" spans="1:10" ht="15.75">
+      <c r="A170" s="26"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+    </row>
+    <row r="171" spans="1:10" ht="15.75">
+      <c r="A171" s="26"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+    </row>
+    <row r="172" spans="1:10" ht="15.75">
+      <c r="A172" s="26"/>
+      <c r="B172" s="24"/>
+      <c r="C172" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+    </row>
+    <row r="173" spans="1:10" ht="15.75">
+      <c r="A173" s="26"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+    </row>
+    <row r="174" spans="1:10" ht="15.75">
+      <c r="A174" s="26"/>
+      <c r="B174" s="24"/>
+      <c r="C174" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="1"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+    </row>
+    <row r="175" spans="1:10" ht="15.75">
+      <c r="A175" s="26"/>
+      <c r="B175" s="24"/>
+      <c r="C175" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="1"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
+    </row>
+    <row r="176" spans="1:10" ht="15.75">
+      <c r="A176" s="26"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+    </row>
+    <row r="177" spans="1:10" ht="15.75">
+      <c r="A177" s="26"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+    </row>
+    <row r="178" spans="1:10" ht="15.75">
+      <c r="A178" s="26"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+    </row>
+    <row r="179" spans="1:10" ht="15.75">
+      <c r="A179" s="26"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="1"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+    </row>
+    <row r="180" spans="1:10" ht="15.75">
+      <c r="A180" s="26"/>
+      <c r="B180" s="24"/>
+      <c r="C180" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+    </row>
+    <row r="181" spans="1:10" ht="15.75">
+      <c r="A181" s="26"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+    </row>
+    <row r="182" spans="1:10" ht="15.75">
+      <c r="A182" s="26"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+    </row>
+    <row r="183" spans="1:10" ht="15.75">
+      <c r="A183" s="26"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+    </row>
+    <row r="184" spans="1:10" ht="15.75">
+      <c r="A184" s="26"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+    </row>
+    <row r="185" spans="1:10" ht="15.75">
+      <c r="A185" s="26"/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H185" s="1"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
+    </row>
+    <row r="186" spans="1:10" ht="15.75">
+      <c r="A186" s="26"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+    </row>
+    <row r="187" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A187" s="25">
+        <v>6</v>
+      </c>
+      <c r="B187" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H187" s="1"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+    </row>
+    <row r="188" spans="1:10" ht="15.75">
+      <c r="A188" s="26"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H188" s="1"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
+    </row>
+    <row r="189" spans="1:10" ht="15.75">
+      <c r="A189" s="26"/>
+      <c r="B189" s="24"/>
+      <c r="C189" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" s="1"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="22"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="4:10">
+    <row r="191" spans="1:10">
+      <c r="A191" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="22"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -4230,23 +4445,245 @@
       <c r="H191" s="2"/>
       <c r="J191" s="2"/>
     </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="J192" s="2"/>
+    </row>
+    <row r="193" spans="1:10" ht="60">
+      <c r="A193" s="15">
+        <v>1</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="J193" s="2"/>
+    </row>
+    <row r="194" spans="1:10" ht="30">
+      <c r="A194" s="17">
+        <v>2</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C194" s="17">
+        <v>2</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="J194" s="2"/>
+    </row>
+    <row r="195" spans="1:10" ht="30">
+      <c r="A195" s="17">
+        <v>3</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C195" s="17">
+        <v>3</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="J195" s="2"/>
+    </row>
+    <row r="196" spans="1:10" ht="30">
+      <c r="A196" s="17">
+        <v>4</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C196" s="17">
+        <v>4</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="J196" s="2"/>
+    </row>
+    <row r="197" spans="1:10" ht="30">
+      <c r="A197" s="17">
+        <v>5</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C197" s="17">
+        <v>5</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="J197" s="2"/>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="J198" s="2"/>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="J199" s="2"/>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="J200" s="2"/>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="J201" s="2"/>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="J202" s="2"/>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="J203" s="2"/>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="J204" s="2"/>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="J205" s="2"/>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="J206" s="2"/>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="J207" s="2"/>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="J208" s="2"/>
+    </row>
+    <row r="209" spans="4:10">
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="4:10">
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="J210" s="2"/>
+    </row>
+    <row r="211" spans="4:10">
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="J211" s="2"/>
+    </row>
+    <row r="212" spans="4:10">
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="J212" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="B103:B186"/>
+    <mergeCell ref="A103:A186"/>
+    <mergeCell ref="B48:B102"/>
+    <mergeCell ref="A48:A102"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B46"/>
-    <mergeCell ref="A11:A46"/>
+    <mergeCell ref="B11:B47"/>
+    <mergeCell ref="A11:A47"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="B102:B165"/>
-    <mergeCell ref="A102:A165"/>
-    <mergeCell ref="B47:B101"/>
-    <mergeCell ref="A47:A101"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D171:H189 D2:H168">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D192:H210 D2:H189">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -4262,7 +4699,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4274,7 +4711,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
